--- a/test-input/testData.xlsx
+++ b/test-input/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohdFaizanAnsari\eclipse-workspace\clicflyer_Web\test-input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4098631-5AAC-4283-967E-A706881944FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76D3B4-4351-4E9D-817E-EDBA8D20D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE587700-743D-4269-A755-BF7B61A45582}"/>
   </bookViews>
@@ -25,15 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>faizanm3522@gmail.com</t>
   </si>
   <si>
-    <t>faizanm3522@gmail.com</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
@@ -78,9 +81,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,28 +410,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B2">
-        <v>12345678</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
